--- a/public/sample/sample-dormitory.xlsx
+++ b/public/sample/sample-dormitory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achdi\WebProject\riab-app\public\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryansyah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A9CB15-FB76-44A4-9B44-AAB95E6DD4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441D3237-4C6D-4D3F-B54F-4783CF6AD07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99F5C706-BED3-402B-9789-188B59095DE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{99F5C706-BED3-402B-9789-188B59095DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="8">
   <si>
     <t>building</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>username_wali_asrama</t>
+  </si>
+  <si>
+    <t>staff</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBB2D3F-0365-48AE-BF8F-06E3142EA8CE}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D28"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +445,7 @@
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +458,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -466,8 +475,11 @@
       <c r="D2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -480,8 +492,11 @@
       <c r="D3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -494,8 +509,11 @@
       <c r="D4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -508,8 +526,11 @@
       <c r="D5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -522,8 +543,11 @@
       <c r="D6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -536,8 +560,11 @@
       <c r="D7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -550,8 +577,11 @@
       <c r="D8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -564,8 +594,11 @@
       <c r="D9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -578,8 +611,11 @@
       <c r="D10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -592,8 +628,11 @@
       <c r="D11">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -606,8 +645,11 @@
       <c r="D12">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -620,8 +662,11 @@
       <c r="D13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -634,8 +679,11 @@
       <c r="D14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -648,8 +696,11 @@
       <c r="D15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -662,8 +713,11 @@
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -676,8 +730,11 @@
       <c r="D17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -690,8 +747,11 @@
       <c r="D18">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -704,8 +764,11 @@
       <c r="D19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -718,8 +781,11 @@
       <c r="D20">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -732,8 +798,11 @@
       <c r="D21">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -746,8 +815,11 @@
       <c r="D22">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -760,8 +832,11 @@
       <c r="D23">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -774,8 +849,11 @@
       <c r="D24">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -788,8 +866,11 @@
       <c r="D25">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -802,8 +883,11 @@
       <c r="D26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -816,8 +900,11 @@
       <c r="D27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -829,6 +916,9 @@
       </c>
       <c r="D28">
         <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
